--- a/GraficoRadar.xlsx
+++ b/GraficoRadar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
